--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>671.190007941824</v>
+        <v>1290.131691912129</v>
       </c>
       <c r="C2">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D2">
-        <v>5.25137566485003</v>
+        <v>10.09396160728659</v>
       </c>
       <c r="E2">
-        <v>3.325536421772433</v>
+        <v>6.392198750832045</v>
       </c>
       <c r="F2">
-        <v>2.555017843706454</v>
+        <v>4.911142082813006</v>
       </c>
       <c r="G2">
-        <v>77.34227761933468</v>
+        <v>148.6638988970446</v>
       </c>
       <c r="H2">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I2">
-        <v>760.3320482693831</v>
+        <v>1461.476571823186</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>484.6256800764157</v>
+        <v>931.5260078115537</v>
       </c>
       <c r="C3">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D3">
-        <v>4.773977877136391</v>
+        <v>9.176328733896897</v>
       </c>
       <c r="E3">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F3">
-        <v>3.074005843209327</v>
+        <v>5.908717818384394</v>
       </c>
       <c r="G3">
-        <v>64.23341700588814</v>
+        <v>123.4666278975455</v>
       </c>
       <c r="H3">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I3">
-        <v>558.3289679384055</v>
+        <v>1073.195201845678</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>574.0440857397182</v>
+        <v>1103.402104924847</v>
       </c>
       <c r="C4">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D4">
-        <v>5.967472346420491</v>
+        <v>11.47041091737112</v>
       </c>
       <c r="E4">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F4">
-        <v>2.914317227977675</v>
+        <v>5.601771438208583</v>
       </c>
       <c r="G4">
-        <v>62.92253094454353</v>
+        <v>120.9469007975956</v>
       </c>
       <c r="H4">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I4">
-        <v>647.8075896232635</v>
+        <v>1245.18704352735</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>721.9708309111065</v>
+        <v>1387.740339655481</v>
       </c>
       <c r="C5">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D5">
-        <v>5.49007455870685</v>
+        <v>10.55277804398143</v>
       </c>
       <c r="E5">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F5">
-        <v>2.794550766553933</v>
+        <v>5.371561653076724</v>
       </c>
       <c r="G5">
-        <v>58.98987276050954</v>
+        <v>113.3877194977459</v>
       </c>
       <c r="H5">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I5">
-        <v>791.2067745970895</v>
+        <v>1520.822602668658</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>736.3219330546003</v>
+        <v>1415.325392278602</v>
       </c>
       <c r="C6">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D6">
-        <v>5.728773452563669</v>
+        <v>11.01159448067627</v>
       </c>
       <c r="E6">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F6">
-        <v>3.672838150328027</v>
+        <v>7.059766744043695</v>
       </c>
       <c r="G6">
-        <v>65.54430306723279</v>
+        <v>125.9863549974954</v>
       </c>
       <c r="H6">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I6">
-        <v>813.6892733197158</v>
+        <v>1564.037465482806</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>657.9428367324459</v>
+        <v>1264.668566413863</v>
       </c>
       <c r="C7">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D7">
-        <v>7.160966815704587</v>
+        <v>13.76449310084534</v>
       </c>
       <c r="E7">
-        <v>2.286306289968548</v>
+        <v>4.39463664119703</v>
       </c>
       <c r="F7">
-        <v>4.032137534599247</v>
+        <v>7.750396099439273</v>
       </c>
       <c r="G7">
-        <v>58.98987276050954</v>
+        <v>113.3877194977459</v>
       </c>
       <c r="H7">
-        <v>1.308518728485244</v>
+        <v>2.515176717627325</v>
       </c>
       <c r="I7">
-        <v>731.7296878041485</v>
+        <v>1406.498381946896</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>725.2826237134514</v>
+        <v>1394.106121030047</v>
       </c>
       <c r="C8">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D8">
-        <v>9.309256860415966</v>
+        <v>17.89384103109895</v>
       </c>
       <c r="E8">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F8">
-        <v>2.794550766553933</v>
+        <v>5.371561653076724</v>
       </c>
       <c r="G8">
-        <v>48.50278426975227</v>
+        <v>93.22990269814657</v>
       </c>
       <c r="H8">
-        <v>0.654259364242622</v>
+        <v>1.257588358813662</v>
       </c>
       <c r="I8">
-        <v>789.0478073509852</v>
+        <v>1516.672731495007</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>795.9342034968013</v>
+        <v>1529.909457020798</v>
       </c>
       <c r="C9">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D9">
-        <v>8.593160178845503</v>
+        <v>16.51739172101441</v>
       </c>
       <c r="E9">
-        <v>4.364766553576318</v>
+        <v>8.389760860467053</v>
       </c>
       <c r="F9">
-        <v>3.273616612248894</v>
+        <v>6.292400793604163</v>
       </c>
       <c r="G9">
-        <v>38.01569577899504</v>
+        <v>73.07208589854733</v>
       </c>
       <c r="H9">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I9">
-        <v>850.5971414299452</v>
+        <v>1634.980134125823</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>1133.737069335943</v>
+        <v>2179.219157226574</v>
       </c>
       <c r="C10">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D10">
-        <v>7.160966815704587</v>
+        <v>13.76449310084534</v>
       </c>
       <c r="E10">
-        <v>3.741228474493988</v>
+        <v>7.191223594686049</v>
       </c>
       <c r="F10">
-        <v>2.754628612746021</v>
+        <v>5.294825058032772</v>
       </c>
       <c r="G10">
-        <v>30.1503794109271</v>
+        <v>57.95372329884787</v>
       </c>
       <c r="H10">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I10">
-        <v>1177.881582392176</v>
+        <v>2264.071784119093</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>1130.425276533599</v>
+        <v>2172.853375852006</v>
       </c>
       <c r="C11">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D11">
-        <v>5.967472346420491</v>
+        <v>11.47041091737112</v>
       </c>
       <c r="E11">
-        <v>5.611842711740977</v>
+        <v>10.78683539202907</v>
       </c>
       <c r="F11">
-        <v>1.596886152316534</v>
+        <v>3.069463801758127</v>
       </c>
       <c r="G11">
-        <v>31.46126547227177</v>
+        <v>60.47345039879781</v>
       </c>
       <c r="I11">
-        <v>1175.071792158784</v>
+        <v>2258.67092983814</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>878.7290235554145</v>
+        <v>1689.053991384959</v>
       </c>
       <c r="C12">
-        <v>0.01696676706619847</v>
+        <v>0.0326127678338306</v>
       </c>
       <c r="D12">
-        <v>4.296580089422751</v>
+        <v>8.258695860507206</v>
       </c>
       <c r="E12">
-        <v>4.780458606297872</v>
+        <v>9.188785704321058</v>
       </c>
       <c r="F12">
-        <v>1.876341228971927</v>
+        <v>3.606619967065799</v>
       </c>
       <c r="G12">
-        <v>30.1503794109271</v>
+        <v>57.95372329884787</v>
       </c>
       <c r="I12">
-        <v>919.8497496581003</v>
+        <v>1768.094428983535</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>704.3079359652696</v>
+        <v>1353.789505657794</v>
       </c>
       <c r="C13">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D13">
-        <v>5.25137566485003</v>
+        <v>10.09396160728659</v>
       </c>
       <c r="E13">
-        <v>3.325536421772433</v>
+        <v>6.392198750832045</v>
       </c>
       <c r="F13">
-        <v>1.117820306621574</v>
+        <v>2.148624661230689</v>
       </c>
       <c r="G13">
-        <v>53.74632851513091</v>
+        <v>103.3088110979462</v>
       </c>
       <c r="H13">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I13">
-        <v>767.8432215900234</v>
+        <v>1475.914216349686</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>526.5750555727799</v>
+        <v>1012.159238556062</v>
       </c>
       <c r="C14">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D14">
-        <v>2.864386726281834</v>
+        <v>5.505797240338136</v>
       </c>
       <c r="E14">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F14">
-        <v>0.8383652299661806</v>
+        <v>1.611468495923018</v>
       </c>
       <c r="G14">
-        <v>55.05721457647557</v>
+        <v>105.8285381978962</v>
       </c>
       <c r="I14">
-        <v>587.2146852851857</v>
+        <v>1128.71804776374</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>346.6343133120604</v>
+        <v>666.285117204619</v>
       </c>
       <c r="C15">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D15">
-        <v>2.864386726281834</v>
+        <v>5.505797240338136</v>
       </c>
       <c r="E15">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F15">
-        <v>0.9980538451978336</v>
+        <v>1.91841487609883</v>
       </c>
       <c r="G15">
-        <v>34.08303759496106</v>
+        <v>65.51290459869762</v>
       </c>
       <c r="I15">
-        <v>386.4628480115967</v>
+        <v>742.8417617468415</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>173.3171566560302</v>
+        <v>333.1425586023095</v>
       </c>
       <c r="C16">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D16">
-        <v>1.670892256997737</v>
+        <v>3.211715056863915</v>
       </c>
       <c r="E16">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F16">
-        <v>0.4391436918870467</v>
+        <v>0.8441025454834851</v>
       </c>
       <c r="G16">
-        <v>26.21772122689312</v>
+        <v>50.39454199899814</v>
       </c>
       <c r="I16">
-        <v>203.1100160765733</v>
+        <v>390.4090728178444</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>125.848126489092</v>
+        <v>241.8996922335242</v>
       </c>
       <c r="C17">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D17">
-        <v>0.2386988938568196</v>
+        <v>0.4588164366948448</v>
       </c>
       <c r="E17">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F17">
-        <v>0.4790658456949602</v>
+        <v>0.9208391405274384</v>
       </c>
       <c r="G17">
-        <v>17.04151879748053</v>
+        <v>32.75645229934881</v>
       </c>
       <c r="I17">
-        <v>144.6556891003635</v>
+        <v>278.0507556959084</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>73.96337258569444</v>
+        <v>142.1691173653169</v>
       </c>
       <c r="C18">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D18">
-        <v>0.9547955754272782</v>
+        <v>1.835265746779379</v>
       </c>
       <c r="E18">
-        <v>0.6235380790823313</v>
+        <v>1.198537265781008</v>
       </c>
       <c r="F18">
-        <v>0.3992215380791335</v>
+        <v>0.7673659504395318</v>
       </c>
       <c r="G18">
-        <v>17.04151879748053</v>
+        <v>32.75645229934881</v>
       </c>
       <c r="I18">
-        <v>92.99828222502552</v>
+        <v>178.7571772109772</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>58.50833950808664</v>
+        <v>112.4621376173402</v>
       </c>
       <c r="C19">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D19">
-        <v>0.2386988938568196</v>
+        <v>0.4588164366948448</v>
       </c>
       <c r="F19">
-        <v>0.3992215380791335</v>
+        <v>0.7673659504395318</v>
       </c>
       <c r="G19">
-        <v>18.35240485882518</v>
+        <v>35.27617939929871</v>
       </c>
       <c r="I19">
-        <v>77.50545150567426</v>
+        <v>148.9775445109068</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>51.88475390339762</v>
+        <v>99.73057486820733</v>
       </c>
       <c r="C20">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D20">
-        <v>0.9547955754272782</v>
+        <v>1.835265746779379</v>
       </c>
       <c r="E20">
-        <v>0.2078460263607771</v>
+        <v>0.3995124219270028</v>
       </c>
       <c r="F20">
-        <v>0.6786766147345267</v>
+        <v>1.304522115747204</v>
       </c>
       <c r="G20">
-        <v>24.90683516554849</v>
+        <v>47.87481489904826</v>
       </c>
       <c r="I20">
-        <v>78.63630063888192</v>
+        <v>151.1512126052759</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>107.0813006091397</v>
+        <v>205.8269311109812</v>
       </c>
       <c r="C21">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D21">
-        <v>1.432193363140917</v>
+        <v>2.752898620169068</v>
       </c>
       <c r="E21">
-        <v>0.6235380790823313</v>
+        <v>1.198537265781008</v>
       </c>
       <c r="F21">
-        <v>0.6387544609266136</v>
+        <v>1.227785520703252</v>
       </c>
       <c r="G21">
-        <v>56.36810063782024</v>
+        <v>108.3482652978461</v>
       </c>
       <c r="I21">
-        <v>166.1472805035231</v>
+        <v>319.3609403690473</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>281.5023881992848</v>
+        <v>541.0914168381461</v>
       </c>
       <c r="C22">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D22">
-        <v>4.773977877136391</v>
+        <v>9.176328733896897</v>
       </c>
       <c r="E22">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F22">
-        <v>1.037975999005747</v>
+        <v>1.995151471142783</v>
       </c>
       <c r="G22">
-        <v>106.1817709689171</v>
+        <v>204.0978950959426</v>
       </c>
       <c r="I22">
-        <v>395.3701206350044</v>
+        <v>759.9629264900382</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>646.9035273912972</v>
+        <v>1243.449295165309</v>
       </c>
       <c r="C23">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D23">
-        <v>4.057881195565932</v>
+        <v>7.799879423812364</v>
       </c>
       <c r="E23">
-        <v>7.06676489626642</v>
+        <v>13.58342234551809</v>
       </c>
       <c r="F23">
-        <v>2.794550766553933</v>
+        <v>5.371561653076724</v>
       </c>
       <c r="G23">
-        <v>97.00556853950454</v>
+        <v>186.4598053962931</v>
       </c>
       <c r="H23">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I23">
-        <v>758.1622091781359</v>
+        <v>1457.30580327055</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>836.7796480590501</v>
+        <v>1608.42076064045</v>
       </c>
       <c r="C24">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D24">
-        <v>4.057881195565932</v>
+        <v>7.799879423812364</v>
       </c>
       <c r="E24">
-        <v>4.364766553576318</v>
+        <v>8.389760860467053</v>
       </c>
       <c r="F24">
-        <v>2.515095689898541</v>
+        <v>4.834405487769052</v>
       </c>
       <c r="G24">
-        <v>78.65316368067933</v>
+        <v>151.1836259969945</v>
       </c>
       <c r="H24">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I24">
-        <v>926.7056026855225</v>
+        <v>1781.272445880556</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>983.6024622963247</v>
+        <v>1890.63706824623</v>
       </c>
       <c r="C25">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D25">
-        <v>6.922267921847769</v>
+        <v>13.3056766641505</v>
       </c>
       <c r="E25">
-        <v>3.949074500854764</v>
+        <v>7.590736016613052</v>
       </c>
       <c r="F25">
-        <v>2.115874151819408</v>
+        <v>4.067039537329519</v>
       </c>
       <c r="G25">
-        <v>62.92253094454353</v>
+        <v>120.9469007975956</v>
       </c>
       <c r="H25">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I25">
-        <v>1060.008559927594</v>
+        <v>2037.50148345364</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>801.4538581673752</v>
+        <v>1540.519092645075</v>
       </c>
       <c r="C26">
-        <v>0.0180978848706117</v>
+        <v>0.03478695235608596</v>
       </c>
       <c r="D26">
-        <v>6.206171240277309</v>
+        <v>11.92922735406597</v>
       </c>
       <c r="E26">
-        <v>3.949074500854764</v>
+        <v>7.590736016613052</v>
       </c>
       <c r="F26">
-        <v>3.193772304633068</v>
+        <v>6.138927603516255</v>
       </c>
       <c r="G26">
-        <v>94.3837964168152</v>
+        <v>181.4203511963933</v>
       </c>
       <c r="H26">
-        <v>0.5724769437122941</v>
+        <v>1.100389813961955</v>
       </c>
       <c r="I26">
-        <v>909.7772474585385</v>
+        <v>1748.733511581982</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>579.5637404102924</v>
+        <v>1114.011740549124</v>
       </c>
       <c r="C27">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D27">
-        <v>5.728773452563669</v>
+        <v>11.01159448067627</v>
       </c>
       <c r="E27">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F27">
-        <v>3.872448919367594</v>
+        <v>7.443449719263459</v>
       </c>
       <c r="G27">
-        <v>78.65316368067933</v>
+        <v>151.1836259969945</v>
       </c>
       <c r="H27">
-        <v>0.4906945231819662</v>
+        <v>0.9431912691102468</v>
       </c>
       <c r="I27">
-        <v>669.7773165842634</v>
+        <v>1287.416279182925</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>625.9288396431156</v>
+        <v>1203.132679793055</v>
       </c>
       <c r="C28">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D28">
-        <v>6.444870134134128</v>
+        <v>12.38804379076082</v>
       </c>
       <c r="E28">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F28">
-        <v>3.193772304633068</v>
+        <v>6.138927603516255</v>
       </c>
       <c r="G28">
-        <v>68.16607518992213</v>
+        <v>131.0258091973952</v>
       </c>
       <c r="H28">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I28">
-        <v>705.9017177805739</v>
+        <v>1356.853002440504</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>691.0607647558916</v>
+        <v>1328.326380159527</v>
       </c>
       <c r="C29">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D29">
-        <v>4.773977877136391</v>
+        <v>9.176328733896897</v>
       </c>
       <c r="E29">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F29">
-        <v>3.273616612248894</v>
+        <v>6.292400793604163</v>
       </c>
       <c r="G29">
-        <v>47.1918982084076</v>
+        <v>90.71017559819667</v>
       </c>
       <c r="H29">
-        <v>0.327129682121311</v>
+        <v>0.6287941794068312</v>
       </c>
       <c r="I29">
-        <v>748.5104436689013</v>
+        <v>1438.75360729172</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>759.5044826710111</v>
+        <v>1459.885861900566</v>
       </c>
       <c r="C30">
-        <v>0.01357341365295878</v>
+        <v>0.02609021426706448</v>
       </c>
       <c r="D30">
-        <v>5.967472346420491</v>
+        <v>11.47041091737112</v>
       </c>
       <c r="E30">
-        <v>1.870614237246994</v>
+        <v>3.595611797343024</v>
       </c>
       <c r="F30">
-        <v>2.594939997514367</v>
+        <v>4.987878677856957</v>
       </c>
       <c r="G30">
-        <v>55.05721457647557</v>
+        <v>105.8285381978962</v>
       </c>
       <c r="H30">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I30">
-        <v>825.0900796628517</v>
+        <v>1585.951590250152</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>710.9315215699584</v>
+        <v>1366.521068406926</v>
       </c>
       <c r="C31">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D31">
-        <v>5.967472346420491</v>
+        <v>11.47041091737112</v>
       </c>
       <c r="E31">
-        <v>1.662768210886217</v>
+        <v>3.196099375416023</v>
       </c>
       <c r="F31">
-        <v>3.912371073175507</v>
+        <v>7.52018631430741</v>
       </c>
       <c r="G31">
-        <v>52.43544245378623</v>
+        <v>100.7890839979963</v>
       </c>
       <c r="H31">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I31">
-        <v>775.3286678171181</v>
+        <v>1490.302409396976</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>804.7656509697198</v>
+        <v>1546.884874019641</v>
       </c>
       <c r="C32">
-        <v>0.01470453145737201</v>
+        <v>0.02826439878931985</v>
       </c>
       <c r="D32">
-        <v>4.535278983279571</v>
+        <v>8.717512297202054</v>
       </c>
       <c r="E32">
-        <v>1.662768210886217</v>
+        <v>3.196099375416023</v>
       </c>
       <c r="F32">
-        <v>2.754628612746021</v>
+        <v>5.294825058032772</v>
       </c>
       <c r="G32">
-        <v>55.05721457647557</v>
+        <v>105.8285381978962</v>
       </c>
       <c r="H32">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I32">
-        <v>869.0355931461555</v>
+        <v>1670.421708981533</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>873.2093688848402</v>
+        <v>1678.444355760681</v>
       </c>
       <c r="C33">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D33">
-        <v>8.354461284988682</v>
+        <v>16.05857528431957</v>
       </c>
       <c r="E33">
-        <v>3.949074500854764</v>
+        <v>7.590736016613052</v>
       </c>
       <c r="F33">
-        <v>3.353460919864722</v>
+        <v>6.445873983692071</v>
       </c>
       <c r="G33">
-        <v>32.77215153361639</v>
+        <v>62.99317749874771</v>
       </c>
       <c r="H33">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I33">
-        <v>922.0564781692516</v>
+        <v>1772.33610474449</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>1044.318663672641</v>
+        <v>2007.34306011328</v>
       </c>
       <c r="C34">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D34">
-        <v>7.638364603418226</v>
+        <v>14.68212597423503</v>
       </c>
       <c r="E34">
-        <v>4.572612579937095</v>
+        <v>8.78927328239406</v>
       </c>
       <c r="F34">
-        <v>2.275562767051061</v>
+        <v>4.373985917505331</v>
       </c>
       <c r="G34">
-        <v>20.9741769815145</v>
+        <v>40.31563359919854</v>
       </c>
       <c r="H34">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I34">
-        <v>1079.873605320941</v>
+        <v>2075.685193461209</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>1099.515210378383</v>
+        <v>2113.439416356055</v>
       </c>
       <c r="C35">
-        <v>0.00791782463089262</v>
+        <v>0.01521929165578761</v>
       </c>
       <c r="D35">
-        <v>5.49007455870685</v>
+        <v>10.55277804398143</v>
       </c>
       <c r="E35">
-        <v>5.611842711740977</v>
+        <v>10.78683539202907</v>
       </c>
       <c r="F35">
-        <v>1.1976646142374</v>
+        <v>2.302097851318596</v>
       </c>
       <c r="G35">
-        <v>28.83949334958245</v>
+        <v>55.43399619889796</v>
       </c>
       <c r="I35">
-        <v>1140.662203437282</v>
+        <v>2192.530343133938</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>1026.655768726804</v>
+        <v>1973.392226115593</v>
       </c>
       <c r="C36">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D36">
-        <v>5.728773452563669</v>
+        <v>11.01159448067627</v>
       </c>
       <c r="E36">
-        <v>4.156920527215543</v>
+        <v>7.990248438540054</v>
       </c>
       <c r="F36">
-        <v>1.676730459932361</v>
+        <v>3.222936991846035</v>
       </c>
       <c r="G36">
-        <v>43.25924002437365</v>
+        <v>83.15099429834702</v>
       </c>
       <c r="I36">
-        <v>1081.483088779911</v>
+        <v>2078.778871247613</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>635.8642180501494</v>
+        <v>1222.230023916754</v>
       </c>
       <c r="C37">
-        <v>0.01244229584854554</v>
+        <v>0.0239160297448091</v>
       </c>
       <c r="D37">
-        <v>5.25137566485003</v>
+        <v>10.09396160728659</v>
       </c>
       <c r="E37">
-        <v>4.98830463265865</v>
+        <v>9.588298126248064</v>
       </c>
       <c r="F37">
-        <v>0.798443076158267</v>
+        <v>1.534731900879064</v>
       </c>
       <c r="G37">
-        <v>44.57012608571829</v>
+        <v>85.67072139829696</v>
       </c>
       <c r="I37">
-        <v>691.4849098053832</v>
+        <v>1329.141652979209</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>545.3418814527325</v>
+        <v>1048.231999678605</v>
       </c>
       <c r="C38">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D38">
-        <v>4.296580089422751</v>
+        <v>8.258695860507206</v>
       </c>
       <c r="E38">
-        <v>2.078460263607771</v>
+        <v>3.995124219270027</v>
       </c>
       <c r="F38">
-        <v>1.07789815281366</v>
+        <v>2.071888066186736</v>
       </c>
       <c r="G38">
-        <v>43.25924002437365</v>
+        <v>83.15099429834702</v>
       </c>
       <c r="I38">
-        <v>596.06424004319</v>
+        <v>1145.728269783617</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>378.648310401391</v>
+        <v>727.8210038254283</v>
       </c>
       <c r="C39">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D39">
-        <v>2.625687832425015</v>
+        <v>5.046980803643295</v>
       </c>
       <c r="E39">
-        <v>2.701998342690103</v>
+        <v>5.193661485051032</v>
       </c>
       <c r="F39">
-        <v>0.6387544609266136</v>
+        <v>1.227785520703252</v>
       </c>
       <c r="G39">
-        <v>35.39392365630574</v>
+        <v>68.03263169864752</v>
       </c>
       <c r="H39">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I39">
-        <v>420.1062927635306</v>
+        <v>807.5097004616367</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>236.2412199005762</v>
+        <v>454.0924047190717</v>
       </c>
       <c r="C40">
-        <v>0.01018006023971908</v>
+        <v>0.01956766070029836</v>
       </c>
       <c r="D40">
-        <v>0.9547955754272782</v>
+        <v>1.835265746779379</v>
       </c>
       <c r="E40">
-        <v>1.454922184525439</v>
+        <v>2.796586953489018</v>
       </c>
       <c r="F40">
-        <v>0.5988323071187002</v>
+        <v>1.151048925659298</v>
       </c>
       <c r="G40">
-        <v>17.04151879748053</v>
+        <v>32.75645229934881</v>
       </c>
       <c r="I40">
-        <v>256.3014688253679</v>
+        <v>492.6513263050485</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>126.9520574232069</v>
+        <v>244.0216193583797</v>
       </c>
       <c r="C41">
-        <v>0.01583564926178524</v>
+        <v>0.03043858331157522</v>
       </c>
       <c r="D41">
-        <v>0.9547955754272782</v>
+        <v>1.835265746779379</v>
       </c>
       <c r="E41">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F41">
-        <v>0.6387544609266136</v>
+        <v>1.227785520703252</v>
       </c>
       <c r="G41">
-        <v>19.66329092016983</v>
+        <v>37.79590649924862</v>
       </c>
       <c r="I41">
-        <v>149.2639641607963</v>
+        <v>286.9085778180576</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>73.96337258569444</v>
+        <v>142.1691173653169</v>
       </c>
       <c r="C42">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D42">
-        <v>0.7160966815704586</v>
+        <v>1.376449310084534</v>
       </c>
       <c r="E42">
-        <v>0.8313841054431084</v>
+        <v>1.598049687708011</v>
       </c>
       <c r="F42">
-        <v>0.5988323071187002</v>
+        <v>1.151048925659298</v>
       </c>
       <c r="G42">
-        <v>13.10886061344656</v>
+        <v>25.19727099949907</v>
       </c>
       <c r="I42">
-        <v>89.22759523570856</v>
+        <v>171.5093297644459</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>56.30047763985696</v>
+        <v>108.2182833676292</v>
       </c>
       <c r="C43">
-        <v>0.006786706826479388</v>
+        <v>0.01304510713353224</v>
       </c>
       <c r="D43">
-        <v>0.4773977877136391</v>
+        <v>0.9176328733896897</v>
       </c>
       <c r="F43">
-        <v>0.3992215380791335</v>
+        <v>0.7673659504395318</v>
       </c>
       <c r="G43">
-        <v>23.5959491042038</v>
+        <v>45.35508779909834</v>
       </c>
       <c r="I43">
-        <v>80.77983277668001</v>
+        <v>155.2714150976903</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>43.05330643047886</v>
+        <v>82.75515786936357</v>
       </c>
       <c r="C44">
-        <v>0.003393353413239694</v>
+        <v>0.006522553566766121</v>
       </c>
       <c r="D44">
-        <v>0.4773977877136391</v>
+        <v>0.9176328733896897</v>
       </c>
       <c r="E44">
-        <v>0.2078460263607771</v>
+        <v>0.3995124219270028</v>
       </c>
       <c r="F44">
-        <v>0.6387544609266136</v>
+        <v>1.227785520703252</v>
       </c>
       <c r="G44">
-        <v>30.1503794109271</v>
+        <v>57.95372329884787</v>
       </c>
       <c r="I44">
-        <v>74.53107746982023</v>
+        <v>143.2603345377981</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>130.2638502255514</v>
+        <v>250.3874007329462</v>
       </c>
       <c r="C45">
-        <v>0.005655589022066157</v>
+        <v>0.01087092261127686</v>
       </c>
       <c r="D45">
-        <v>1.909591150854556</v>
+        <v>3.670531493558759</v>
       </c>
       <c r="E45">
-        <v>1.039230131803886</v>
+        <v>1.997562109635014</v>
       </c>
       <c r="F45">
-        <v>0.7585209223503535</v>
+        <v>1.457995305835111</v>
       </c>
       <c r="G45">
-        <v>49.81367033109698</v>
+        <v>95.74962979809652</v>
       </c>
       <c r="I45">
-        <v>183.7905183506793</v>
+        <v>353.2739903626829</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>230.721565230002</v>
+        <v>443.4827690947944</v>
       </c>
       <c r="D46">
-        <v>4.773977877136391</v>
+        <v>9.176328733896897</v>
       </c>
       <c r="E46">
-        <v>2.494152316329325</v>
+        <v>4.794149063124032</v>
       </c>
       <c r="F46">
-        <v>1.31743107566114</v>
+        <v>2.532307636450455</v>
       </c>
       <c r="G46">
-        <v>108.8035430916065</v>
+        <v>209.1373492958424</v>
       </c>
       <c r="H46">
-        <v>0.2453472615909831</v>
+        <v>0.4715956345551234</v>
       </c>
       <c r="I46">
-        <v>348.3560168523264</v>
+        <v>669.5944994586633</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>681.1253863488575</v>
+        <v>1309.229036035829</v>
       </c>
       <c r="C47">
-        <v>0.009048942435305851</v>
+        <v>0.01739347617804298</v>
       </c>
       <c r="D47">
-        <v>5.49007455870685</v>
+        <v>10.55277804398143</v>
       </c>
       <c r="E47">
-        <v>7.06676489626642</v>
+        <v>13.58342234551809</v>
       </c>
       <c r="F47">
-        <v>2.834472920361848</v>
+        <v>5.448298248120677</v>
       </c>
       <c r="G47">
-        <v>111.4253152142958</v>
+        <v>214.1768034957422</v>
       </c>
       <c r="H47">
-        <v>0.1635648410606555</v>
+        <v>0.3143970897034156</v>
       </c>
       <c r="I47">
-        <v>808.1146277219843</v>
+        <v>1553.322128735073</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>813.5970984426388</v>
+        <v>1563.860291018485</v>
       </c>
       <c r="C48">
-        <v>0.01696676706619847</v>
+        <v>0.0326127678338306</v>
       </c>
       <c r="D48">
-        <v>3.580483407852293</v>
+        <v>6.882246550422672</v>
       </c>
       <c r="E48">
-        <v>4.572612579937095</v>
+        <v>8.78927328239406</v>
       </c>
       <c r="F48">
-        <v>2.594939997514367</v>
+        <v>4.987878677856957</v>
       </c>
       <c r="G48">
-        <v>82.58582186471338</v>
+        <v>158.7428072968443</v>
       </c>
       <c r="H48">
-        <v>0.4089121026516386</v>
+        <v>0.7859927242585389</v>
       </c>
       <c r="I48">
-        <v>907.3568351623736</v>
+        <v>1744.081102318096</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>1034.383285265607</v>
+        <v>1988.24571598958</v>
       </c>
       <c r="C49">
-        <v>0.004524471217652926</v>
+        <v>0.008696738089021491</v>
       </c>
       <c r="D49">
-        <v>6.683569027990948</v>
+        <v>12.84686022745566</v>
       </c>
       <c r="E49">
-        <v>4.156920527215543</v>
+        <v>7.990248438540054</v>
       </c>
       <c r="F49">
-        <v>2.355407074666888</v>
+        <v>4.527459107593239</v>
       </c>
       <c r="G49">
-        <v>74.72050549664537</v>
+        <v>143.6244446971447</v>
       </c>
       <c r="H49">
-        <v>0.08178242053032775</v>
+        <v>0.1571985448517078</v>
       </c>
       <c r="I49">
-        <v>1122.385994283874</v>
+        <v>2157.400623743255</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>518.4641378712296</v>
+        <v>302.236458666019</v>
       </c>
       <c r="C2">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D2">
-        <v>4.056451860872179</v>
+        <v>2.364691317345641</v>
       </c>
       <c r="E2">
-        <v>2.568827535381101</v>
+        <v>1.497487059384952</v>
       </c>
       <c r="F2">
-        <v>1.97363653795289</v>
+        <v>1.150523005070212</v>
       </c>
       <c r="G2">
-        <v>59.74343600535434</v>
+        <v>34.82718129924533</v>
       </c>
       <c r="H2">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I2">
-        <v>587.3223606392244</v>
+        <v>342.3770660470518</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>374.3515732326805</v>
+        <v>218.226653543392</v>
       </c>
       <c r="C3">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D3">
-        <v>3.687683509883801</v>
+        <v>2.14971937940513</v>
       </c>
       <c r="E3">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F3">
-        <v>2.374531459724571</v>
+        <v>1.384222990475098</v>
       </c>
       <c r="G3">
-        <v>49.61742990275191</v>
+        <v>28.92426921462747</v>
       </c>
       <c r="H3">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I3">
-        <v>431.2840530781696</v>
+        <v>251.4151999339407</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>443.4232758109202</v>
+        <v>258.4917080696216</v>
       </c>
       <c r="C4">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D4">
-        <v>4.609604387354751</v>
+        <v>2.687149224256411</v>
       </c>
       <c r="E4">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F4">
-        <v>2.251179176102516</v>
+        <v>1.31231530265821</v>
       </c>
       <c r="G4">
-        <v>48.60482929249169</v>
+        <v>28.33397800616569</v>
       </c>
       <c r="H4">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I4">
-        <v>500.4022698287488</v>
+        <v>291.7073696986193</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>557.6900430391186</v>
+        <v>325.1030328414087</v>
       </c>
       <c r="C5">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D5">
-        <v>4.240836036366369</v>
+        <v>2.472177286315898</v>
       </c>
       <c r="E5">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F5">
-        <v>2.158664963385973</v>
+        <v>1.258384536795544</v>
       </c>
       <c r="G5">
-        <v>45.56702746171092</v>
+        <v>26.56310438078032</v>
       </c>
       <c r="H5">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I5">
-        <v>611.1717001378718</v>
+        <v>356.2799368245579</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>568.7756249343917</v>
+        <v>331.5653255431492</v>
       </c>
       <c r="C6">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D6">
-        <v>4.425220211860564</v>
+        <v>2.579663255286155</v>
       </c>
       <c r="E6">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F6">
-        <v>2.83710252330728</v>
+        <v>1.653876819788429</v>
       </c>
       <c r="G6">
-        <v>50.63003051301217</v>
+        <v>29.51456042308925</v>
       </c>
       <c r="H6">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I6">
-        <v>628.5384207080436</v>
+        <v>366.403792536782</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>508.2312930448237</v>
+        <v>296.2712654028739</v>
       </c>
       <c r="C7">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D7">
-        <v>5.5315252648257</v>
+        <v>3.224579069107695</v>
       </c>
       <c r="E7">
-        <v>1.766068930574507</v>
+        <v>1.029522353327154</v>
       </c>
       <c r="F7">
-        <v>3.114645161456904</v>
+        <v>1.815669117376428</v>
       </c>
       <c r="G7">
-        <v>45.56702746171092</v>
+        <v>26.56310438078032</v>
       </c>
       <c r="H7">
-        <v>1.010771951943691</v>
+        <v>0.5892251998927565</v>
       </c>
       <c r="I7">
-        <v>565.2283217169771</v>
+        <v>329.4974402567183</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>560.24825424572</v>
+        <v>326.5943311571951</v>
       </c>
       <c r="C8">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D8">
-        <v>7.190982844273412</v>
+        <v>4.191952789840006</v>
       </c>
       <c r="E8">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F8">
-        <v>2.158664963385973</v>
+        <v>1.258384536795544</v>
       </c>
       <c r="G8">
-        <v>37.466222579629</v>
+        <v>21.84077471308607</v>
       </c>
       <c r="H8">
-        <v>0.5053859759718456</v>
+        <v>0.2946125999463782</v>
       </c>
       <c r="I8">
-        <v>609.5039948998628</v>
+        <v>355.3077551664319</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>614.823426653218</v>
+        <v>358.4086952273023</v>
       </c>
       <c r="C9">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D9">
-        <v>6.637830317790841</v>
+        <v>3.869494882929235</v>
       </c>
       <c r="E9">
-        <v>3.371586140187696</v>
+        <v>1.96545176544275</v>
       </c>
       <c r="F9">
-        <v>2.52872181425214</v>
+        <v>1.474107600246209</v>
       </c>
       <c r="G9">
-        <v>29.36541769754705</v>
+        <v>17.11844504539178</v>
       </c>
       <c r="H9">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I9">
-        <v>657.0480912842094</v>
+        <v>383.0233834462989</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>875.7609697265666</v>
+        <v>510.5211234375026</v>
       </c>
       <c r="C10">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D10">
-        <v>5.5315252648257</v>
+        <v>3.224579069107695</v>
       </c>
       <c r="E10">
-        <v>2.889930977303738</v>
+        <v>1.684672941808071</v>
       </c>
       <c r="F10">
-        <v>2.127826892480459</v>
+        <v>1.240407614841322</v>
       </c>
       <c r="G10">
-        <v>23.28981403598561</v>
+        <v>13.57669779462107</v>
       </c>
       <c r="H10">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I10">
-        <v>909.8606235244949</v>
+        <v>530.3993712328841</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>873.2027585199653</v>
+        <v>509.0298251217164</v>
       </c>
       <c r="C11">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D11">
-        <v>4.609604387354751</v>
+        <v>2.687149224256411</v>
       </c>
       <c r="E11">
-        <v>4.334896465955608</v>
+        <v>2.527009412712107</v>
       </c>
       <c r="F11">
-        <v>1.233522836220557</v>
+        <v>0.7190768781688825</v>
       </c>
       <c r="G11">
-        <v>24.30241464624585</v>
+        <v>14.16698900308284</v>
       </c>
       <c r="I11">
-        <v>907.6901867573838</v>
+        <v>529.1341243732967</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>678.7787068182541</v>
+        <v>395.691153121959</v>
       </c>
       <c r="C12">
-        <v>0.01310606557808145</v>
+        <v>0.007640125050168413</v>
       </c>
       <c r="D12">
-        <v>3.31891515889542</v>
+        <v>1.934747441464617</v>
       </c>
       <c r="E12">
-        <v>3.692689582110333</v>
+        <v>2.152637647865868</v>
       </c>
       <c r="F12">
-        <v>1.449389332559153</v>
+        <v>0.8449153318484367</v>
       </c>
       <c r="G12">
-        <v>23.28981403598561</v>
+        <v>13.57669779462107</v>
       </c>
       <c r="I12">
-        <v>710.5426209933827</v>
+        <v>414.2077914628091</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>544.0462499372443</v>
+        <v>317.1494418238819</v>
       </c>
       <c r="C13">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D13">
-        <v>4.056451860872179</v>
+        <v>2.364691317345641</v>
       </c>
       <c r="E13">
-        <v>2.568827535381101</v>
+        <v>1.497487059384952</v>
       </c>
       <c r="F13">
-        <v>0.8634659853543896</v>
+        <v>0.5033538147182177</v>
       </c>
       <c r="G13">
-        <v>41.51662502067001</v>
+        <v>24.20193954693319</v>
       </c>
       <c r="H13">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I13">
-        <v>593.1244047012756</v>
+        <v>345.7593428956274</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>406.7555818496322</v>
+        <v>237.1164322100182</v>
       </c>
       <c r="C14">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D14">
-        <v>2.212610105930282</v>
+        <v>1.289831627643078</v>
       </c>
       <c r="E14">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F14">
-        <v>0.6475994890157918</v>
+        <v>0.3775153610386632</v>
       </c>
       <c r="G14">
-        <v>42.52922563093021</v>
+        <v>24.79223075539497</v>
       </c>
       <c r="I14">
-        <v>453.596972465802</v>
+        <v>264.422421158359</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>267.7594396242861</v>
+        <v>156.0892237189638</v>
       </c>
       <c r="C15">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D15">
-        <v>2.212610105930282</v>
+        <v>1.289831627643078</v>
       </c>
       <c r="E15">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F15">
-        <v>0.7709517726378476</v>
+        <v>0.4494230488555514</v>
       </c>
       <c r="G15">
-        <v>26.32761586676633</v>
+        <v>15.34757142000641</v>
       </c>
       <c r="I15">
-        <v>298.5251939730297</v>
+        <v>174.0239890447429</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>133.8797198121431</v>
+        <v>78.04461185948188</v>
       </c>
       <c r="C16">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D16">
-        <v>1.29068922845933</v>
+        <v>0.7524017827917953</v>
       </c>
       <c r="E16">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F16">
-        <v>0.3392187799606529</v>
+        <v>0.1977461414964427</v>
       </c>
       <c r="G16">
-        <v>20.25201220520487</v>
+        <v>11.80582416923571</v>
       </c>
       <c r="I16">
-        <v>156.893365711844</v>
+        <v>91.46031861651683</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>97.21202585085553</v>
+        <v>56.6693359998786</v>
       </c>
       <c r="C17">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D17">
-        <v>0.18438417549419</v>
+        <v>0.1074859689702565</v>
       </c>
       <c r="E17">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F17">
-        <v>0.3700568508661669</v>
+        <v>0.2157230634506646</v>
       </c>
       <c r="G17">
-        <v>13.16380793338316</v>
+        <v>7.673785710003207</v>
       </c>
       <c r="I17">
-        <v>111.7400233170473</v>
+        <v>65.13837018172062</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>57.13338361409928</v>
+        <v>33.30566238589355</v>
       </c>
       <c r="C18">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D18">
-        <v>0.7375367019767599</v>
+        <v>0.429943875881026</v>
       </c>
       <c r="E18">
-        <v>0.4816551628839565</v>
+        <v>0.2807788236346786</v>
       </c>
       <c r="F18">
-        <v>0.3083807090551391</v>
+        <v>0.1797692195422206</v>
       </c>
       <c r="G18">
-        <v>13.16380793338316</v>
+        <v>7.673785710003207</v>
       </c>
       <c r="I18">
-        <v>71.83699644927117</v>
+        <v>41.87707079833483</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>45.19506464995916</v>
+        <v>26.34627024555759</v>
       </c>
       <c r="C19">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D19">
-        <v>0.18438417549419</v>
+        <v>0.1074859689702565</v>
       </c>
       <c r="F19">
-        <v>0.3083807090551391</v>
+        <v>0.1797692195422206</v>
       </c>
       <c r="G19">
-        <v>14.1764085436434</v>
+        <v>8.264076918464994</v>
       </c>
       <c r="I19">
-        <v>59.86948050438313</v>
+        <v>34.90065840255512</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>40.07864223675622</v>
+        <v>23.36367361398503</v>
       </c>
       <c r="C20">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D20">
-        <v>0.7375367019767599</v>
+        <v>0.429943875881026</v>
       </c>
       <c r="E20">
-        <v>0.1605517209613188</v>
+        <v>0.09359294121155949</v>
       </c>
       <c r="F20">
-        <v>0.5242472053937364</v>
+        <v>0.305607673221775</v>
       </c>
       <c r="G20">
-        <v>19.23941159494464</v>
+        <v>11.21553296077392</v>
       </c>
       <c r="I20">
-        <v>60.74301067314829</v>
+        <v>35.40987909008335</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>82.71549568011389</v>
+        <v>48.21864554375634</v>
       </c>
       <c r="C21">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D21">
-        <v>1.106305052965141</v>
+        <v>0.6449158138215388</v>
       </c>
       <c r="E21">
-        <v>0.4816551628839565</v>
+        <v>0.2807788236346786</v>
       </c>
       <c r="F21">
-        <v>0.4934091344882224</v>
+        <v>0.2876307512675529</v>
       </c>
       <c r="G21">
-        <v>43.54182624119046</v>
+        <v>25.38252196385678</v>
       </c>
       <c r="I21">
-        <v>128.3413124847573</v>
+        <v>74.81602092134692</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>217.4479525611242</v>
+        <v>126.7603568418337</v>
       </c>
       <c r="C22">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D22">
-        <v>3.687683509883801</v>
+        <v>2.14971937940513</v>
       </c>
       <c r="E22">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F22">
-        <v>0.8017898435433614</v>
+        <v>0.4673999708097735</v>
       </c>
       <c r="G22">
-        <v>82.0206494310797</v>
+        <v>47.81358788540459</v>
       </c>
       <c r="I22">
-        <v>305.4056620473986</v>
+        <v>178.0349285733672</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>499.7039223561521</v>
+        <v>291.3002710169196</v>
       </c>
       <c r="C23">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D23">
-        <v>3.134530983401228</v>
+        <v>1.82726147249436</v>
       </c>
       <c r="E23">
-        <v>5.458758512684842</v>
+        <v>3.182160001193022</v>
       </c>
       <c r="F23">
-        <v>2.158664963385973</v>
+        <v>1.258384536795544</v>
       </c>
       <c r="G23">
-        <v>74.93244515925801</v>
+        <v>43.68154942617214</v>
       </c>
       <c r="H23">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I23">
-        <v>585.6462573890992</v>
+        <v>341.3999888035679</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>646.3746982013023</v>
+        <v>376.801374455333</v>
       </c>
       <c r="C24">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D24">
-        <v>3.134530983401228</v>
+        <v>1.82726147249436</v>
       </c>
       <c r="E24">
-        <v>3.371586140187696</v>
+        <v>1.96545176544275</v>
       </c>
       <c r="F24">
-        <v>1.942798467047375</v>
+        <v>1.132546083115989</v>
       </c>
       <c r="G24">
-        <v>60.75603661561459</v>
+        <v>35.41747250770713</v>
       </c>
       <c r="H24">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I24">
-        <v>715.8384595594755</v>
+        <v>417.2949779757565</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>759.788728360634</v>
+        <v>442.9155997885247</v>
       </c>
       <c r="C25">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D25">
-        <v>5.347141089331507</v>
+        <v>3.117093100137437</v>
       </c>
       <c r="E25">
-        <v>3.050482698265058</v>
+        <v>1.778265883019631</v>
       </c>
       <c r="F25">
-        <v>1.634417757992237</v>
+        <v>0.9527768635737691</v>
       </c>
       <c r="G25">
-        <v>48.60482929249169</v>
+        <v>28.33397800616569</v>
       </c>
       <c r="H25">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I25">
-        <v>818.8090073692194</v>
+        <v>477.3212197997311</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>619.0871119975536</v>
+        <v>360.8941924202791</v>
       </c>
       <c r="C26">
-        <v>0.01397980328328688</v>
+        <v>0.008149466720179641</v>
       </c>
       <c r="D26">
-        <v>4.79398856284894</v>
+        <v>2.79463519322667</v>
       </c>
       <c r="E26">
-        <v>3.050482698265058</v>
+        <v>1.778265883019631</v>
       </c>
       <c r="F26">
-        <v>2.467045672441113</v>
+        <v>1.438153756337765</v>
       </c>
       <c r="G26">
-        <v>72.90724393873751</v>
+        <v>42.50096700924852</v>
       </c>
       <c r="H26">
-        <v>0.442212728975365</v>
+        <v>0.2577860249530809</v>
       </c>
       <c r="I26">
-        <v>702.762065402105</v>
+        <v>409.672149753785</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>447.6869611552557</v>
+        <v>260.9772052625985</v>
       </c>
       <c r="C27">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D27">
-        <v>4.425220211860564</v>
+        <v>2.579663255286155</v>
       </c>
       <c r="E27">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F27">
-        <v>2.991292877834848</v>
+        <v>1.74376142955954</v>
       </c>
       <c r="G27">
-        <v>60.75603661561459</v>
+        <v>35.41747250770713</v>
       </c>
       <c r="H27">
-        <v>0.3790394819788844</v>
+        <v>0.2209594499597836</v>
       </c>
       <c r="I27">
-        <v>517.3728972417363</v>
+        <v>301.6003245936322</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>483.5019180476759</v>
+        <v>281.8553816836065</v>
       </c>
       <c r="C28">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D28">
-        <v>4.978372738343131</v>
+        <v>2.902121162196925</v>
       </c>
       <c r="E28">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F28">
-        <v>2.467045672441113</v>
+        <v>1.438153756337765</v>
       </c>
       <c r="G28">
-        <v>52.65523173353266</v>
+        <v>30.69514284001283</v>
       </c>
       <c r="H28">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I28">
-        <v>545.2773748125389</v>
+        <v>317.867120820953</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>533.8134051108383</v>
+        <v>311.1842485607367</v>
       </c>
       <c r="C29">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D29">
-        <v>3.687683509883801</v>
+        <v>2.14971937940513</v>
       </c>
       <c r="E29">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F29">
-        <v>2.52872181425214</v>
+        <v>1.474107600246209</v>
       </c>
       <c r="G29">
-        <v>36.45362196936875</v>
+        <v>21.25048350462426</v>
       </c>
       <c r="H29">
-        <v>0.2526929879859228</v>
+        <v>0.1473062999731891</v>
       </c>
       <c r="I29">
-        <v>578.190701995738</v>
+        <v>337.0538045742597</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>586.6831033806018</v>
+        <v>342.0044137536533</v>
       </c>
       <c r="C30">
-        <v>0.01048485246246516</v>
+        <v>0.006112100040134731</v>
       </c>
       <c r="D30">
-        <v>4.609604387354751</v>
+        <v>2.687149224256411</v>
       </c>
       <c r="E30">
-        <v>1.444965488651869</v>
+        <v>0.8423364709040353</v>
       </c>
       <c r="F30">
-        <v>2.004474608858403</v>
+        <v>1.168499927024434</v>
       </c>
       <c r="G30">
-        <v>42.52922563093021</v>
+        <v>24.79223075539497</v>
       </c>
       <c r="H30">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I30">
-        <v>637.3450315958561</v>
+        <v>371.5375688062666</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>549.1626723504471</v>
+        <v>320.1320384554543</v>
       </c>
       <c r="C31">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D31">
-        <v>4.609604387354751</v>
+        <v>2.687149224256411</v>
       </c>
       <c r="E31">
-        <v>1.28441376769055</v>
+        <v>0.7487435296924759</v>
       </c>
       <c r="F31">
-        <v>3.022130948740362</v>
+        <v>1.761738351513761</v>
       </c>
       <c r="G31">
-        <v>40.50402441040975</v>
+        <v>23.61164833847142</v>
       </c>
       <c r="H31">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I31">
-        <v>598.9065757389719</v>
+        <v>349.130034849385</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>621.6453232041555</v>
+        <v>362.3854907360657</v>
       </c>
       <c r="C32">
-        <v>0.0113585901676706</v>
+        <v>0.006621441710145959</v>
       </c>
       <c r="D32">
-        <v>3.503299334389609</v>
+        <v>2.042233410434873</v>
       </c>
       <c r="E32">
-        <v>1.28441376769055</v>
+        <v>0.7487435296924759</v>
       </c>
       <c r="F32">
-        <v>2.127826892480459</v>
+        <v>1.240407614841322</v>
       </c>
       <c r="G32">
-        <v>42.52922563093021</v>
+        <v>24.79223075539497</v>
       </c>
       <c r="H32">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I32">
-        <v>671.2909671608035</v>
+        <v>391.3262072131193</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>674.5150214739186</v>
+        <v>393.205655928982</v>
       </c>
       <c r="C33">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D33">
-        <v>6.453446142296651</v>
+        <v>3.762008913958979</v>
       </c>
       <c r="E33">
-        <v>3.050482698265058</v>
+        <v>1.778265883019631</v>
       </c>
       <c r="F33">
-        <v>2.590397956063167</v>
+        <v>1.510061444154653</v>
       </c>
       <c r="G33">
-        <v>25.31501525650608</v>
+        <v>14.75728021154463</v>
       </c>
       <c r="H33">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I33">
-        <v>712.2472196636737</v>
+        <v>415.2014799899865</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>806.6892671483274</v>
+        <v>470.256068911273</v>
       </c>
       <c r="C34">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D34">
-        <v>5.900293615814079</v>
+        <v>3.439551007048208</v>
       </c>
       <c r="E34">
-        <v>3.532137861149015</v>
+        <v>2.059044706654308</v>
       </c>
       <c r="F34">
-        <v>1.757770041614293</v>
+        <v>1.024684551390657</v>
       </c>
       <c r="G34">
-        <v>16.2016097641639</v>
+        <v>9.444659335388566</v>
       </c>
       <c r="H34">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I34">
-        <v>834.1538627928226</v>
+        <v>486.2664378451182</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>849.3261205916853</v>
+        <v>495.1110408410444</v>
       </c>
       <c r="C35">
-        <v>0.006116163936438012</v>
+        <v>0.003565391690078593</v>
       </c>
       <c r="D35">
-        <v>4.240836036366369</v>
+        <v>2.472177286315898</v>
       </c>
       <c r="E35">
-        <v>4.334896465955608</v>
+        <v>2.527009412712107</v>
       </c>
       <c r="F35">
-        <v>0.9251421271654172</v>
+        <v>0.5393076586266619</v>
       </c>
       <c r="G35">
-        <v>22.27721342572536</v>
+        <v>12.98640658615928</v>
       </c>
       <c r="I35">
-        <v>881.1103248108343</v>
+        <v>513.6395071765485</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>793.0454740464535</v>
+        <v>462.302477893746</v>
       </c>
       <c r="C36">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D36">
-        <v>4.425220211860564</v>
+        <v>2.579663255286155</v>
       </c>
       <c r="E36">
-        <v>3.211034419226378</v>
+        <v>1.87185882423119</v>
       </c>
       <c r="F36">
-        <v>1.295198978031584</v>
+        <v>0.7550307220773265</v>
       </c>
       <c r="G36">
-        <v>33.41582013858801</v>
+        <v>19.47960987923891</v>
       </c>
       <c r="I36">
-        <v>835.3971164826862</v>
+        <v>486.9911872829297</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>491.1765516674806</v>
+        <v>286.3292766309654</v>
       </c>
       <c r="C37">
-        <v>0.009611114757259735</v>
+        <v>0.005602758370123502</v>
       </c>
       <c r="D37">
-        <v>4.056451860872179</v>
+        <v>2.364691317345641</v>
       </c>
       <c r="E37">
-        <v>3.853241303071652</v>
+        <v>2.246230589077429</v>
       </c>
       <c r="F37">
-        <v>0.6167614181102783</v>
+        <v>0.3595384390844413</v>
       </c>
       <c r="G37">
-        <v>34.42842074884829</v>
+        <v>20.0699010877007</v>
       </c>
       <c r="I37">
-        <v>534.1410381131403</v>
+        <v>311.3752408225437</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>421.2521120203739</v>
+        <v>245.5671226661405</v>
       </c>
       <c r="C38">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D38">
-        <v>3.31891515889542</v>
+        <v>1.934747441464617</v>
       </c>
       <c r="E38">
-        <v>1.605517209613189</v>
+        <v>0.9359294121155949</v>
       </c>
       <c r="F38">
-        <v>0.8326279144488755</v>
+        <v>0.4853768927639955</v>
       </c>
       <c r="G38">
-        <v>33.41582013858801</v>
+        <v>19.47960987923891</v>
       </c>
       <c r="I38">
-        <v>460.4328560812663</v>
+        <v>268.4073703667538</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>292.4888146214338</v>
+        <v>170.5051074382312</v>
       </c>
       <c r="C39">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D39">
-        <v>2.028225930436089</v>
+        <v>1.18234565867282</v>
       </c>
       <c r="E39">
-        <v>2.087172372497146</v>
+        <v>1.216708235750274</v>
       </c>
       <c r="F39">
-        <v>0.4934091344882224</v>
+        <v>0.2876307512675529</v>
       </c>
       <c r="G39">
-        <v>27.34021647702657</v>
+        <v>15.93786262846821</v>
       </c>
       <c r="H39">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I39">
-        <v>324.5132441107511</v>
+        <v>189.1736120707635</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>182.4857327375708</v>
+        <v>106.3792798594211</v>
       </c>
       <c r="C40">
-        <v>0.007863639346848873</v>
+        <v>0.004584075030101047</v>
       </c>
       <c r="D40">
-        <v>0.7375367019767599</v>
+        <v>0.429943875881026</v>
       </c>
       <c r="E40">
-        <v>1.123862046729232</v>
+        <v>0.6551505884809166</v>
       </c>
       <c r="F40">
-        <v>0.4625710635827086</v>
+        <v>0.2696538293133309</v>
       </c>
       <c r="G40">
-        <v>13.16380793338316</v>
+        <v>7.673785710003207</v>
       </c>
       <c r="I40">
-        <v>197.9813741225895</v>
+        <v>115.4123979381297</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>98.06476291972267</v>
+        <v>57.16643543847401</v>
       </c>
       <c r="C41">
-        <v>0.01223232787287602</v>
+        <v>0.007130783380157186</v>
       </c>
       <c r="D41">
-        <v>0.7375367019767599</v>
+        <v>0.429943875881026</v>
       </c>
       <c r="E41">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F41">
-        <v>0.4934091344882224</v>
+        <v>0.2876307512675529</v>
       </c>
       <c r="G41">
-        <v>15.18900915390365</v>
+        <v>8.854368126926783</v>
       </c>
       <c r="I41">
-        <v>115.2997088427708</v>
+        <v>67.21347368198732</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>57.13338361409928</v>
+        <v>33.30566238589355</v>
       </c>
       <c r="C42">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D42">
-        <v>0.5531525264825705</v>
+        <v>0.3224579069107694</v>
       </c>
       <c r="E42">
-        <v>0.6422068838452752</v>
+        <v>0.374371764846238</v>
       </c>
       <c r="F42">
-        <v>0.4625710635827086</v>
+        <v>0.2696538293133309</v>
       </c>
       <c r="G42">
-        <v>10.12600610260244</v>
+        <v>5.902912084617855</v>
       </c>
       <c r="I42">
-        <v>68.92431009225392</v>
+        <v>40.17913270494184</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>43.48959051222486</v>
+        <v>25.35207136836674</v>
       </c>
       <c r="C43">
-        <v>0.005242426231232582</v>
+        <v>0.003056050020067366</v>
       </c>
       <c r="D43">
-        <v>0.36876835098838</v>
+        <v>0.214971937940513</v>
       </c>
       <c r="F43">
-        <v>0.3083807090551391</v>
+        <v>0.1797692195422206</v>
       </c>
       <c r="G43">
-        <v>18.22681098468438</v>
+        <v>10.62524175231213</v>
       </c>
       <c r="I43">
-        <v>62.39879298318399</v>
+        <v>36.37511032818167</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>33.25674568581901</v>
+        <v>19.38687810522162</v>
       </c>
       <c r="C44">
-        <v>0.002621213115616291</v>
+        <v>0.001528025010033683</v>
       </c>
       <c r="D44">
-        <v>0.36876835098838</v>
+        <v>0.214971937940513</v>
       </c>
       <c r="E44">
-        <v>0.1605517209613188</v>
+        <v>0.09359294121155949</v>
       </c>
       <c r="F44">
-        <v>0.4934091344882224</v>
+        <v>0.2876307512675529</v>
       </c>
       <c r="G44">
-        <v>23.28981403598561</v>
+        <v>13.57669779462107</v>
       </c>
       <c r="I44">
-        <v>57.57191014135815</v>
+        <v>33.56129955527234</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>100.6229741263241</v>
+        <v>58.65773375426028</v>
       </c>
       <c r="C45">
-        <v>0.004368688526027152</v>
+        <v>0.002546708350056138</v>
       </c>
       <c r="D45">
-        <v>1.47507340395352</v>
+        <v>0.859887751762052</v>
       </c>
       <c r="E45">
-        <v>0.8027586048065944</v>
+        <v>0.4679647060577974</v>
       </c>
       <c r="F45">
-        <v>0.5859233472047642</v>
+        <v>0.3415615171302191</v>
       </c>
       <c r="G45">
-        <v>38.47882318988928</v>
+        <v>22.43106592154785</v>
       </c>
       <c r="I45">
-        <v>141.9699213607043</v>
+        <v>82.76076035910825</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>178.2220473932352</v>
+        <v>103.893782666444</v>
       </c>
       <c r="D46">
-        <v>3.687683509883801</v>
+        <v>2.14971937940513</v>
       </c>
       <c r="E46">
-        <v>1.926620651535826</v>
+        <v>1.123115294538714</v>
       </c>
       <c r="F46">
-        <v>1.017656339881959</v>
+        <v>0.593238424489328</v>
       </c>
       <c r="G46">
-        <v>84.04585065160026</v>
+        <v>48.9941703023282</v>
       </c>
       <c r="H46">
-        <v>0.1895197409894422</v>
+        <v>0.1104797249798918</v>
       </c>
       <c r="I46">
-        <v>269.0893782871265</v>
+        <v>156.8645057921852</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>526.1387714910339</v>
+        <v>306.7103536133778</v>
       </c>
       <c r="C47">
-        <v>0.006989901641643442</v>
+        <v>0.00407473336008982</v>
       </c>
       <c r="D47">
-        <v>4.240836036366369</v>
+        <v>2.472177286315898</v>
       </c>
       <c r="E47">
-        <v>5.458758512684842</v>
+        <v>3.182160001193022</v>
       </c>
       <c r="F47">
-        <v>2.189503034291487</v>
+        <v>1.276361458749766</v>
       </c>
       <c r="G47">
-        <v>86.07105187212069</v>
+        <v>50.17475271925173</v>
       </c>
       <c r="H47">
-        <v>0.1263464939929614</v>
+        <v>0.07365314998659456</v>
       </c>
       <c r="I47">
-        <v>624.232257342132</v>
+        <v>363.8935329622349</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>628.4672197550922</v>
+        <v>366.3622862448292</v>
       </c>
       <c r="C48">
-        <v>0.01310606557808145</v>
+        <v>0.007640125050168413</v>
       </c>
       <c r="D48">
-        <v>2.76576263241285</v>
+        <v>1.612289534553848</v>
       </c>
       <c r="E48">
-        <v>3.532137861149015</v>
+        <v>2.059044706654308</v>
       </c>
       <c r="F48">
-        <v>2.004474608858403</v>
+        <v>1.168499927024434</v>
       </c>
       <c r="G48">
-        <v>63.79383844639533</v>
+        <v>37.18834613309247</v>
       </c>
       <c r="H48">
-        <v>0.3158662349824035</v>
+        <v>0.1841328749664864</v>
       </c>
       <c r="I48">
-        <v>700.8924056044683</v>
+        <v>408.5822395461709</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>799.0146335285229</v>
+        <v>465.7821739639141</v>
       </c>
       <c r="C49">
-        <v>0.003494950820821721</v>
+        <v>0.00203736668004491</v>
       </c>
       <c r="D49">
-        <v>5.162756913837319</v>
+        <v>3.009607131167181</v>
       </c>
       <c r="E49">
-        <v>3.211034419226378</v>
+        <v>1.87185882423119</v>
       </c>
       <c r="F49">
-        <v>1.81944618342532</v>
+        <v>1.060638395299102</v>
       </c>
       <c r="G49">
-        <v>57.71823478483388</v>
+        <v>33.64659888232177</v>
       </c>
       <c r="H49">
-        <v>0.06317324699648071</v>
+        <v>0.03682657499329728</v>
       </c>
       <c r="I49">
-        <v>866.9927740276631</v>
+        <v>505.4097411386068</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_VOC.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>302.236458666019</v>
+        <v>518.4641378712296</v>
       </c>
       <c r="C2">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D2">
-        <v>2.364691317345641</v>
+        <v>4.056451860872179</v>
       </c>
       <c r="E2">
-        <v>1.497487059384952</v>
+        <v>2.568827535381101</v>
       </c>
       <c r="F2">
-        <v>1.150523005070212</v>
+        <v>1.97363653795289</v>
       </c>
       <c r="G2">
-        <v>34.82718129924533</v>
+        <v>59.74343600535434</v>
       </c>
       <c r="H2">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I2">
-        <v>342.3770660470518</v>
+        <v>587.3223606392244</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>218.226653543392</v>
+        <v>374.3515732326805</v>
       </c>
       <c r="C3">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D3">
-        <v>2.14971937940513</v>
+        <v>3.687683509883801</v>
       </c>
       <c r="E3">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F3">
-        <v>1.384222990475098</v>
+        <v>2.374531459724571</v>
       </c>
       <c r="G3">
-        <v>28.92426921462747</v>
+        <v>49.61742990275191</v>
       </c>
       <c r="H3">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I3">
-        <v>251.4151999339407</v>
+        <v>431.2840530781696</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>258.4917080696216</v>
+        <v>443.4232758109202</v>
       </c>
       <c r="C4">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D4">
-        <v>2.687149224256411</v>
+        <v>4.609604387354751</v>
       </c>
       <c r="E4">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F4">
-        <v>1.31231530265821</v>
+        <v>2.251179176102516</v>
       </c>
       <c r="G4">
-        <v>28.33397800616569</v>
+        <v>48.60482929249169</v>
       </c>
       <c r="H4">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I4">
-        <v>291.7073696986193</v>
+        <v>500.4022698287488</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>325.1030328414087</v>
+        <v>557.6900430391186</v>
       </c>
       <c r="C5">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D5">
-        <v>2.472177286315898</v>
+        <v>4.240836036366369</v>
       </c>
       <c r="E5">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F5">
-        <v>1.258384536795544</v>
+        <v>2.158664963385973</v>
       </c>
       <c r="G5">
-        <v>26.56310438078032</v>
+        <v>45.56702746171092</v>
       </c>
       <c r="H5">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I5">
-        <v>356.2799368245579</v>
+        <v>611.1717001378718</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>331.5653255431492</v>
+        <v>568.7756249343917</v>
       </c>
       <c r="C6">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D6">
-        <v>2.579663255286155</v>
+        <v>4.425220211860564</v>
       </c>
       <c r="E6">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F6">
-        <v>1.653876819788429</v>
+        <v>2.83710252330728</v>
       </c>
       <c r="G6">
-        <v>29.51456042308925</v>
+        <v>50.63003051301217</v>
       </c>
       <c r="H6">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I6">
-        <v>366.403792536782</v>
+        <v>628.5384207080436</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>296.2712654028739</v>
+        <v>508.2312930448237</v>
       </c>
       <c r="C7">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D7">
-        <v>3.224579069107695</v>
+        <v>5.5315252648257</v>
       </c>
       <c r="E7">
-        <v>1.029522353327154</v>
+        <v>1.766068930574507</v>
       </c>
       <c r="F7">
-        <v>1.815669117376428</v>
+        <v>3.114645161456904</v>
       </c>
       <c r="G7">
-        <v>26.56310438078032</v>
+        <v>45.56702746171092</v>
       </c>
       <c r="H7">
-        <v>0.5892251998927565</v>
+        <v>1.010771951943691</v>
       </c>
       <c r="I7">
-        <v>329.4974402567183</v>
+        <v>565.2283217169771</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>326.5943311571951</v>
+        <v>560.24825424572</v>
       </c>
       <c r="C8">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D8">
-        <v>4.191952789840006</v>
+        <v>7.190982844273412</v>
       </c>
       <c r="E8">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F8">
-        <v>1.258384536795544</v>
+        <v>2.158664963385973</v>
       </c>
       <c r="G8">
-        <v>21.84077471308607</v>
+        <v>37.466222579629</v>
       </c>
       <c r="H8">
-        <v>0.2946125999463782</v>
+        <v>0.5053859759718456</v>
       </c>
       <c r="I8">
-        <v>355.3077551664319</v>
+        <v>609.5039948998628</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>358.4086952273023</v>
+        <v>614.823426653218</v>
       </c>
       <c r="C9">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D9">
-        <v>3.869494882929235</v>
+        <v>6.637830317790841</v>
       </c>
       <c r="E9">
-        <v>1.96545176544275</v>
+        <v>3.371586140187696</v>
       </c>
       <c r="F9">
-        <v>1.474107600246209</v>
+        <v>2.52872181425214</v>
       </c>
       <c r="G9">
-        <v>17.11844504539178</v>
+        <v>29.36541769754705</v>
       </c>
       <c r="H9">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I9">
-        <v>383.0233834462989</v>
+        <v>657.0480912842094</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>510.5211234375026</v>
+        <v>875.7609697265666</v>
       </c>
       <c r="C10">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D10">
-        <v>3.224579069107695</v>
+        <v>5.5315252648257</v>
       </c>
       <c r="E10">
-        <v>1.684672941808071</v>
+        <v>2.889930977303738</v>
       </c>
       <c r="F10">
-        <v>1.240407614841322</v>
+        <v>2.127826892480459</v>
       </c>
       <c r="G10">
-        <v>13.57669779462107</v>
+        <v>23.28981403598561</v>
       </c>
       <c r="H10">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I10">
-        <v>530.3993712328841</v>
+        <v>909.8606235244949</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>509.0298251217164</v>
+        <v>873.2027585199653</v>
       </c>
       <c r="C11">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D11">
-        <v>2.687149224256411</v>
+        <v>4.609604387354751</v>
       </c>
       <c r="E11">
-        <v>2.527009412712107</v>
+        <v>4.334896465955608</v>
       </c>
       <c r="F11">
-        <v>0.7190768781688825</v>
+        <v>1.233522836220557</v>
       </c>
       <c r="G11">
-        <v>14.16698900308284</v>
+        <v>24.30241464624585</v>
       </c>
       <c r="I11">
-        <v>529.1341243732967</v>
+        <v>907.6901867573838</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>395.691153121959</v>
+        <v>678.7787068182541</v>
       </c>
       <c r="C12">
-        <v>0.007640125050168413</v>
+        <v>0.01310606557808145</v>
       </c>
       <c r="D12">
-        <v>1.934747441464617</v>
+        <v>3.31891515889542</v>
       </c>
       <c r="E12">
-        <v>2.152637647865868</v>
+        <v>3.692689582110333</v>
       </c>
       <c r="F12">
-        <v>0.8449153318484367</v>
+        <v>1.449389332559153</v>
       </c>
       <c r="G12">
-        <v>13.57669779462107</v>
+        <v>23.28981403598561</v>
       </c>
       <c r="I12">
-        <v>414.2077914628091</v>
+        <v>710.5426209933827</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>317.1494418238819</v>
+        <v>544.0462499372443</v>
       </c>
       <c r="C13">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D13">
-        <v>2.364691317345641</v>
+        <v>4.056451860872179</v>
       </c>
       <c r="E13">
-        <v>1.497487059384952</v>
+        <v>2.568827535381101</v>
       </c>
       <c r="F13">
-        <v>0.5033538147182177</v>
+        <v>0.8634659853543896</v>
       </c>
       <c r="G13">
-        <v>24.20193954693319</v>
+        <v>41.51662502067001</v>
       </c>
       <c r="H13">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I13">
-        <v>345.7593428956274</v>
+        <v>593.1244047012756</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>237.1164322100182</v>
+        <v>406.7555818496322</v>
       </c>
       <c r="C14">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D14">
-        <v>1.289831627643078</v>
+        <v>2.212610105930282</v>
       </c>
       <c r="E14">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F14">
-        <v>0.3775153610386632</v>
+        <v>0.6475994890157918</v>
       </c>
       <c r="G14">
-        <v>24.79223075539497</v>
+        <v>42.52922563093021</v>
       </c>
       <c r="I14">
-        <v>264.422421158359</v>
+        <v>453.596972465802</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>156.0892237189638</v>
+        <v>267.7594396242861</v>
       </c>
       <c r="C15">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D15">
-        <v>1.289831627643078</v>
+        <v>2.212610105930282</v>
       </c>
       <c r="E15">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F15">
-        <v>0.4494230488555514</v>
+        <v>0.7709517726378476</v>
       </c>
       <c r="G15">
-        <v>15.34757142000641</v>
+        <v>26.32761586676633</v>
       </c>
       <c r="I15">
-        <v>174.0239890447429</v>
+        <v>298.5251939730297</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>78.04461185948188</v>
+        <v>133.8797198121431</v>
       </c>
       <c r="C16">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D16">
-        <v>0.7524017827917953</v>
+        <v>1.29068922845933</v>
       </c>
       <c r="E16">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F16">
-        <v>0.1977461414964427</v>
+        <v>0.3392187799606529</v>
       </c>
       <c r="G16">
-        <v>11.80582416923571</v>
+        <v>20.25201220520487</v>
       </c>
       <c r="I16">
-        <v>91.46031861651683</v>
+        <v>156.893365711844</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>56.6693359998786</v>
+        <v>97.21202585085553</v>
       </c>
       <c r="C17">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D17">
-        <v>0.1074859689702565</v>
+        <v>0.18438417549419</v>
       </c>
       <c r="E17">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F17">
-        <v>0.2157230634506646</v>
+        <v>0.3700568508661669</v>
       </c>
       <c r="G17">
-        <v>7.673785710003207</v>
+        <v>13.16380793338316</v>
       </c>
       <c r="I17">
-        <v>65.13837018172062</v>
+        <v>111.7400233170473</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>33.30566238589355</v>
+        <v>57.13338361409928</v>
       </c>
       <c r="C18">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D18">
-        <v>0.429943875881026</v>
+        <v>0.7375367019767599</v>
       </c>
       <c r="E18">
-        <v>0.2807788236346786</v>
+        <v>0.4816551628839565</v>
       </c>
       <c r="F18">
-        <v>0.1797692195422206</v>
+        <v>0.3083807090551391</v>
       </c>
       <c r="G18">
-        <v>7.673785710003207</v>
+        <v>13.16380793338316</v>
       </c>
       <c r="I18">
-        <v>41.87707079833483</v>
+        <v>71.83699644927117</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>26.34627024555759</v>
+        <v>45.19506464995916</v>
       </c>
       <c r="C19">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D19">
-        <v>0.1074859689702565</v>
+        <v>0.18438417549419</v>
       </c>
       <c r="F19">
-        <v>0.1797692195422206</v>
+        <v>0.3083807090551391</v>
       </c>
       <c r="G19">
-        <v>8.264076918464994</v>
+        <v>14.1764085436434</v>
       </c>
       <c r="I19">
-        <v>34.90065840255512</v>
+        <v>59.86948050438313</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>23.36367361398503</v>
+        <v>40.07864223675622</v>
       </c>
       <c r="C20">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D20">
-        <v>0.429943875881026</v>
+        <v>0.7375367019767599</v>
       </c>
       <c r="E20">
-        <v>0.09359294121155949</v>
+        <v>0.1605517209613188</v>
       </c>
       <c r="F20">
-        <v>0.305607673221775</v>
+        <v>0.5242472053937364</v>
       </c>
       <c r="G20">
-        <v>11.21553296077392</v>
+        <v>19.23941159494464</v>
       </c>
       <c r="I20">
-        <v>35.40987909008335</v>
+        <v>60.74301067314829</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>48.21864554375634</v>
+        <v>82.71549568011389</v>
       </c>
       <c r="C21">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D21">
-        <v>0.6449158138215388</v>
+        <v>1.106305052965141</v>
       </c>
       <c r="E21">
-        <v>0.2807788236346786</v>
+        <v>0.4816551628839565</v>
       </c>
       <c r="F21">
-        <v>0.2876307512675529</v>
+        <v>0.4934091344882224</v>
       </c>
       <c r="G21">
-        <v>25.38252196385678</v>
+        <v>43.54182624119046</v>
       </c>
       <c r="I21">
-        <v>74.81602092134692</v>
+        <v>128.3413124847573</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>126.7603568418337</v>
+        <v>217.4479525611242</v>
       </c>
       <c r="C22">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D22">
-        <v>2.14971937940513</v>
+        <v>3.687683509883801</v>
       </c>
       <c r="E22">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F22">
-        <v>0.4673999708097735</v>
+        <v>0.8017898435433614</v>
       </c>
       <c r="G22">
-        <v>47.81358788540459</v>
+        <v>82.0206494310797</v>
       </c>
       <c r="I22">
-        <v>178.0349285733672</v>
+        <v>305.4056620473986</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>291.3002710169196</v>
+        <v>499.7039223561521</v>
       </c>
       <c r="C23">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D23">
-        <v>1.82726147249436</v>
+        <v>3.134530983401228</v>
       </c>
       <c r="E23">
-        <v>3.182160001193022</v>
+        <v>5.458758512684842</v>
       </c>
       <c r="F23">
-        <v>1.258384536795544</v>
+        <v>2.158664963385973</v>
       </c>
       <c r="G23">
-        <v>43.68154942617214</v>
+        <v>74.93244515925801</v>
       </c>
       <c r="H23">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I23">
-        <v>341.3999888035679</v>
+        <v>585.6462573890992</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>376.801374455333</v>
+        <v>646.3746982013023</v>
       </c>
       <c r="C24">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D24">
-        <v>1.82726147249436</v>
+        <v>3.134530983401228</v>
       </c>
       <c r="E24">
-        <v>1.96545176544275</v>
+        <v>3.371586140187696</v>
       </c>
       <c r="F24">
-        <v>1.132546083115989</v>
+        <v>1.942798467047375</v>
       </c>
       <c r="G24">
-        <v>35.41747250770713</v>
+        <v>60.75603661561459</v>
       </c>
       <c r="H24">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I24">
-        <v>417.2949779757565</v>
+        <v>715.8384595594755</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>442.9155997885247</v>
+        <v>759.788728360634</v>
       </c>
       <c r="C25">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D25">
-        <v>3.117093100137437</v>
+        <v>5.347141089331507</v>
       </c>
       <c r="E25">
-        <v>1.778265883019631</v>
+        <v>3.050482698265058</v>
       </c>
       <c r="F25">
-        <v>0.9527768635737691</v>
+        <v>1.634417757992237</v>
       </c>
       <c r="G25">
-        <v>28.33397800616569</v>
+        <v>48.60482929249169</v>
       </c>
       <c r="H25">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I25">
-        <v>477.3212197997311</v>
+        <v>818.8090073692194</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>360.8941924202791</v>
+        <v>619.0871119975536</v>
       </c>
       <c r="C26">
-        <v>0.008149466720179641</v>
+        <v>0.01397980328328688</v>
       </c>
       <c r="D26">
-        <v>2.79463519322667</v>
+        <v>4.79398856284894</v>
       </c>
       <c r="E26">
-        <v>1.778265883019631</v>
+        <v>3.050482698265058</v>
       </c>
       <c r="F26">
-        <v>1.438153756337765</v>
+        <v>2.467045672441113</v>
       </c>
       <c r="G26">
-        <v>42.50096700924852</v>
+        <v>72.90724393873751</v>
       </c>
       <c r="H26">
-        <v>0.2577860249530809</v>
+        <v>0.442212728975365</v>
       </c>
       <c r="I26">
-        <v>409.672149753785</v>
+        <v>702.762065402105</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>260.9772052625985</v>
+        <v>447.6869611552557</v>
       </c>
       <c r="C27">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D27">
-        <v>2.579663255286155</v>
+        <v>4.425220211860564</v>
       </c>
       <c r="E27">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F27">
-        <v>1.74376142955954</v>
+        <v>2.991292877834848</v>
       </c>
       <c r="G27">
-        <v>35.41747250770713</v>
+        <v>60.75603661561459</v>
       </c>
       <c r="H27">
-        <v>0.2209594499597836</v>
+        <v>0.3790394819788844</v>
       </c>
       <c r="I27">
-        <v>301.6003245936322</v>
+        <v>517.3728972417363</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>281.8553816836065</v>
+        <v>483.5019180476759</v>
       </c>
       <c r="C28">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D28">
-        <v>2.902121162196925</v>
+        <v>4.978372738343131</v>
       </c>
       <c r="E28">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F28">
-        <v>1.438153756337765</v>
+        <v>2.467045672441113</v>
       </c>
       <c r="G28">
-        <v>30.69514284001283</v>
+        <v>52.65523173353266</v>
       </c>
       <c r="H28">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I28">
-        <v>317.867120820953</v>
+        <v>545.2773748125389</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>311.1842485607367</v>
+        <v>533.8134051108383</v>
       </c>
       <c r="C29">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D29">
-        <v>2.14971937940513</v>
+        <v>3.687683509883801</v>
       </c>
       <c r="E29">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F29">
-        <v>1.474107600246209</v>
+        <v>2.52872181425214</v>
       </c>
       <c r="G29">
-        <v>21.25048350462426</v>
+        <v>36.45362196936875</v>
       </c>
       <c r="H29">
-        <v>0.1473062999731891</v>
+        <v>0.2526929879859228</v>
       </c>
       <c r="I29">
-        <v>337.0538045742597</v>
+        <v>578.190701995738</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>342.0044137536533</v>
+        <v>586.6831033806018</v>
       </c>
       <c r="C30">
-        <v>0.006112100040134731</v>
+        <v>0.01048485246246516</v>
       </c>
       <c r="D30">
-        <v>2.687149224256411</v>
+        <v>4.609604387354751</v>
       </c>
       <c r="E30">
-        <v>0.8423364709040353</v>
+        <v>1.444965488651869</v>
       </c>
       <c r="F30">
-        <v>1.168499927024434</v>
+        <v>2.004474608858403</v>
       </c>
       <c r="G30">
-        <v>24.79223075539497</v>
+        <v>42.52922563093021</v>
       </c>
       <c r="H30">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I30">
-        <v>371.5375688062666</v>
+        <v>637.3450315958561</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>320.1320384554543</v>
+        <v>549.1626723504471</v>
       </c>
       <c r="C31">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D31">
-        <v>2.687149224256411</v>
+        <v>4.609604387354751</v>
       </c>
       <c r="E31">
-        <v>0.7487435296924759</v>
+        <v>1.28441376769055</v>
       </c>
       <c r="F31">
-        <v>1.761738351513761</v>
+        <v>3.022130948740362</v>
       </c>
       <c r="G31">
-        <v>23.61164833847142</v>
+        <v>40.50402441040975</v>
       </c>
       <c r="H31">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I31">
-        <v>349.130034849385</v>
+        <v>598.9065757389719</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>362.3854907360657</v>
+        <v>621.6453232041555</v>
       </c>
       <c r="C32">
-        <v>0.006621441710145959</v>
+        <v>0.0113585901676706</v>
       </c>
       <c r="D32">
-        <v>2.042233410434873</v>
+        <v>3.503299334389609</v>
       </c>
       <c r="E32">
-        <v>0.7487435296924759</v>
+        <v>1.28441376769055</v>
       </c>
       <c r="F32">
-        <v>1.240407614841322</v>
+        <v>2.127826892480459</v>
       </c>
       <c r="G32">
-        <v>24.79223075539497</v>
+        <v>42.52922563093021</v>
       </c>
       <c r="H32">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I32">
-        <v>391.3262072131193</v>
+        <v>671.2909671608035</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>393.205655928982</v>
+        <v>674.5150214739186</v>
       </c>
       <c r="C33">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D33">
-        <v>3.762008913958979</v>
+        <v>6.453446142296651</v>
       </c>
       <c r="E33">
-        <v>1.778265883019631</v>
+        <v>3.050482698265058</v>
       </c>
       <c r="F33">
-        <v>1.510061444154653</v>
+        <v>2.590397956063167</v>
       </c>
       <c r="G33">
-        <v>14.75728021154463</v>
+        <v>25.31501525650608</v>
       </c>
       <c r="H33">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I33">
-        <v>415.2014799899865</v>
+        <v>712.2472196636737</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>470.256068911273</v>
+        <v>806.6892671483274</v>
       </c>
       <c r="C34">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D34">
-        <v>3.439551007048208</v>
+        <v>5.900293615814079</v>
       </c>
       <c r="E34">
-        <v>2.059044706654308</v>
+        <v>3.532137861149015</v>
       </c>
       <c r="F34">
-        <v>1.024684551390657</v>
+        <v>1.757770041614293</v>
       </c>
       <c r="G34">
-        <v>9.444659335388566</v>
+        <v>16.2016097641639</v>
       </c>
       <c r="H34">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I34">
-        <v>486.2664378451182</v>
+        <v>834.1538627928226</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>495.1110408410444</v>
+        <v>849.3261205916853</v>
       </c>
       <c r="C35">
-        <v>0.003565391690078593</v>
+        <v>0.006116163936438012</v>
       </c>
       <c r="D35">
-        <v>2.472177286315898</v>
+        <v>4.240836036366369</v>
       </c>
       <c r="E35">
-        <v>2.527009412712107</v>
+        <v>4.334896465955608</v>
       </c>
       <c r="F35">
-        <v>0.5393076586266619</v>
+        <v>0.9251421271654172</v>
       </c>
       <c r="G35">
-        <v>12.98640658615928</v>
+        <v>22.27721342572536</v>
       </c>
       <c r="I35">
-        <v>513.6395071765485</v>
+        <v>881.1103248108343</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>462.302477893746</v>
+        <v>793.0454740464535</v>
       </c>
       <c r="C36">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D36">
-        <v>2.579663255286155</v>
+        <v>4.425220211860564</v>
       </c>
       <c r="E36">
-        <v>1.87185882423119</v>
+        <v>3.211034419226378</v>
       </c>
       <c r="F36">
-        <v>0.7550307220773265</v>
+        <v>1.295198978031584</v>
       </c>
       <c r="G36">
-        <v>19.47960987923891</v>
+        <v>33.41582013858801</v>
       </c>
       <c r="I36">
-        <v>486.9911872829297</v>
+        <v>835.3971164826862</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>286.3292766309654</v>
+        <v>491.1765516674806</v>
       </c>
       <c r="C37">
-        <v>0.005602758370123502</v>
+        <v>0.009611114757259735</v>
       </c>
       <c r="D37">
-        <v>2.364691317345641</v>
+        <v>4.056451860872179</v>
       </c>
       <c r="E37">
-        <v>2.246230589077429</v>
+        <v>3.853241303071652</v>
       </c>
       <c r="F37">
-        <v>0.3595384390844413</v>
+        <v>0.6167614181102783</v>
       </c>
       <c r="G37">
-        <v>20.0699010877007</v>
+        <v>34.42842074884829</v>
       </c>
       <c r="I37">
-        <v>311.3752408225437</v>
+        <v>534.1410381131403</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>245.5671226661405</v>
+        <v>421.2521120203739</v>
       </c>
       <c r="C38">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D38">
-        <v>1.934747441464617</v>
+        <v>3.31891515889542</v>
       </c>
       <c r="E38">
-        <v>0.9359294121155949</v>
+        <v>1.605517209613189</v>
       </c>
       <c r="F38">
-        <v>0.4853768927639955</v>
+        <v>0.8326279144488755</v>
       </c>
       <c r="G38">
-        <v>19.47960987923891</v>
+        <v>33.41582013858801</v>
       </c>
       <c r="I38">
-        <v>268.4073703667538</v>
+        <v>460.4328560812663</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>170.5051074382312</v>
+        <v>292.4888146214338</v>
       </c>
       <c r="C39">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D39">
-        <v>1.18234565867282</v>
+        <v>2.028225930436089</v>
       </c>
       <c r="E39">
-        <v>1.216708235750274</v>
+        <v>2.087172372497146</v>
       </c>
       <c r="F39">
-        <v>0.2876307512675529</v>
+        <v>0.4934091344882224</v>
       </c>
       <c r="G39">
-        <v>15.93786262846821</v>
+        <v>27.34021647702657</v>
       </c>
       <c r="H39">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I39">
-        <v>189.1736120707635</v>
+        <v>324.5132441107511</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>106.3792798594211</v>
+        <v>182.4857327375708</v>
       </c>
       <c r="C40">
-        <v>0.004584075030101047</v>
+        <v>0.007863639346848873</v>
       </c>
       <c r="D40">
-        <v>0.429943875881026</v>
+        <v>0.7375367019767599</v>
       </c>
       <c r="E40">
-        <v>0.6551505884809166</v>
+        <v>1.123862046729232</v>
       </c>
       <c r="F40">
-        <v>0.2696538293133309</v>
+        <v>0.4625710635827086</v>
       </c>
       <c r="G40">
-        <v>7.673785710003207</v>
+        <v>13.16380793338316</v>
       </c>
       <c r="I40">
-        <v>115.4123979381297</v>
+        <v>197.9813741225895</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>57.16643543847401</v>
+        <v>98.06476291972267</v>
       </c>
       <c r="C41">
-        <v>0.007130783380157186</v>
+        <v>0.01223232787287602</v>
       </c>
       <c r="D41">
-        <v>0.429943875881026</v>
+        <v>0.7375367019767599</v>
       </c>
       <c r="E41">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F41">
-        <v>0.2876307512675529</v>
+        <v>0.4934091344882224</v>
       </c>
       <c r="G41">
-        <v>8.854368126926783</v>
+        <v>15.18900915390365</v>
       </c>
       <c r="I41">
-        <v>67.21347368198732</v>
+        <v>115.2997088427708</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>33.30566238589355</v>
+        <v>57.13338361409928</v>
       </c>
       <c r="C42">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D42">
-        <v>0.3224579069107694</v>
+        <v>0.5531525264825705</v>
       </c>
       <c r="E42">
-        <v>0.374371764846238</v>
+        <v>0.6422068838452752</v>
       </c>
       <c r="F42">
-        <v>0.2696538293133309</v>
+        <v>0.4625710635827086</v>
       </c>
       <c r="G42">
-        <v>5.902912084617855</v>
+        <v>10.12600610260244</v>
       </c>
       <c r="I42">
-        <v>40.17913270494184</v>
+        <v>68.92431009225392</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>25.35207136836674</v>
+        <v>43.48959051222486</v>
       </c>
       <c r="C43">
-        <v>0.003056050020067366</v>
+        <v>0.005242426231232582</v>
       </c>
       <c r="D43">
-        <v>0.214971937940513</v>
+        <v>0.36876835098838</v>
       </c>
       <c r="F43">
-        <v>0.1797692195422206</v>
+        <v>0.3083807090551391</v>
       </c>
       <c r="G43">
-        <v>10.62524175231213</v>
+        <v>18.22681098468438</v>
       </c>
       <c r="I43">
-        <v>36.37511032818167</v>
+        <v>62.39879298318399</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>19.38687810522162</v>
+        <v>33.25674568581901</v>
       </c>
       <c r="C44">
-        <v>0.001528025010033683</v>
+        <v>0.002621213115616291</v>
       </c>
       <c r="D44">
-        <v>0.214971937940513</v>
+        <v>0.36876835098838</v>
       </c>
       <c r="E44">
-        <v>0.09359294121155949</v>
+        <v>0.1605517209613188</v>
       </c>
       <c r="F44">
-        <v>0.2876307512675529</v>
+        <v>0.4934091344882224</v>
       </c>
       <c r="G44">
-        <v>13.57669779462107</v>
+        <v>23.28981403598561</v>
       </c>
       <c r="I44">
-        <v>33.56129955527234</v>
+        <v>57.57191014135815</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>58.65773375426028</v>
+        <v>100.6229741263241</v>
       </c>
       <c r="C45">
-        <v>0.002546708350056138</v>
+        <v>0.004368688526027152</v>
       </c>
       <c r="D45">
-        <v>0.859887751762052</v>
+        <v>1.47507340395352</v>
       </c>
       <c r="E45">
-        <v>0.4679647060577974</v>
+        <v>0.8027586048065944</v>
       </c>
       <c r="F45">
-        <v>0.3415615171302191</v>
+        <v>0.5859233472047642</v>
       </c>
       <c r="G45">
-        <v>22.43106592154785</v>
+        <v>38.47882318988928</v>
       </c>
       <c r="I45">
-        <v>82.76076035910825</v>
+        <v>141.9699213607043</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>103.893782666444</v>
+        <v>178.2220473932352</v>
       </c>
       <c r="D46">
-        <v>2.14971937940513</v>
+        <v>3.687683509883801</v>
       </c>
       <c r="E46">
-        <v>1.123115294538714</v>
+        <v>1.926620651535826</v>
       </c>
       <c r="F46">
-        <v>0.593238424489328</v>
+        <v>1.017656339881959</v>
       </c>
       <c r="G46">
-        <v>48.9941703023282</v>
+        <v>84.04585065160026</v>
       </c>
       <c r="H46">
-        <v>0.1104797249798918</v>
+        <v>0.1895197409894422</v>
       </c>
       <c r="I46">
-        <v>156.8645057921852</v>
+        <v>269.0893782871265</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>306.7103536133778</v>
+        <v>526.1387714910339</v>
       </c>
       <c r="C47">
-        <v>0.00407473336008982</v>
+        <v>0.006989901641643442</v>
       </c>
       <c r="D47">
-        <v>2.472177286315898</v>
+        <v>4.240836036366369</v>
       </c>
       <c r="E47">
-        <v>3.182160001193022</v>
+        <v>5.458758512684842</v>
       </c>
       <c r="F47">
-        <v>1.276361458749766</v>
+        <v>2.189503034291487</v>
       </c>
       <c r="G47">
-        <v>50.17475271925173</v>
+        <v>86.07105187212069</v>
       </c>
       <c r="H47">
-        <v>0.07365314998659456</v>
+        <v>0.1263464939929614</v>
       </c>
       <c r="I47">
-        <v>363.8935329622349</v>
+        <v>624.232257342132</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>366.3622862448292</v>
+        <v>628.4672197550922</v>
       </c>
       <c r="C48">
-        <v>0.007640125050168413</v>
+        <v>0.01310606557808145</v>
       </c>
       <c r="D48">
-        <v>1.612289534553848</v>
+        <v>2.76576263241285</v>
       </c>
       <c r="E48">
-        <v>2.059044706654308</v>
+        <v>3.532137861149015</v>
       </c>
       <c r="F48">
-        <v>1.168499927024434</v>
+        <v>2.004474608858403</v>
       </c>
       <c r="G48">
-        <v>37.18834613309247</v>
+        <v>63.79383844639533</v>
       </c>
       <c r="H48">
-        <v>0.1841328749664864</v>
+        <v>0.3158662349824035</v>
       </c>
       <c r="I48">
-        <v>408.5822395461709</v>
+        <v>700.8924056044683</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>465.7821739639141</v>
+        <v>799.0146335285229</v>
       </c>
       <c r="C49">
-        <v>0.00203736668004491</v>
+        <v>0.003494950820821721</v>
       </c>
       <c r="D49">
-        <v>3.009607131167181</v>
+        <v>5.162756913837319</v>
       </c>
       <c r="E49">
-        <v>1.87185882423119</v>
+        <v>3.211034419226378</v>
       </c>
       <c r="F49">
-        <v>1.060638395299102</v>
+        <v>1.81944618342532</v>
       </c>
       <c r="G49">
-        <v>33.64659888232177</v>
+        <v>57.71823478483388</v>
       </c>
       <c r="H49">
-        <v>0.03682657499329728</v>
+        <v>0.06317324699648071</v>
       </c>
       <c r="I49">
-        <v>505.4097411386068</v>
+        <v>866.9927740276631</v>
       </c>
     </row>
   </sheetData>
